--- a/data/Year_one_data_main.xlsx
+++ b/data/Year_one_data_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A9481C-CA81-404B-876E-5483EECF2277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421D7BE5-2FA0-4A41-B907-D9DD2EFEE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36510" yWindow="3630" windowWidth="17280" windowHeight="10500" xr2:uid="{04054A9F-D84F-411D-A41F-0AA7D0B71510}"/>
+    <workbookView xWindow="36075" yWindow="3195" windowWidth="17280" windowHeight="10500" xr2:uid="{04054A9F-D84F-411D-A41F-0AA7D0B71510}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>KNH (n=112)</t>
-  </si>
-  <si>
-    <t>NSIRH (n=9)</t>
-  </si>
-  <si>
-    <t>TNH (n=40)</t>
-  </si>
-  <si>
     <t>Neonates (0-28 days)</t>
   </si>
   <si>
@@ -64,6 +55,15 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>KNH</t>
+  </si>
+  <si>
+    <t>NSIRH</t>
+  </si>
+  <si>
+    <t>TNH</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,18 +428,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>112</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>4</v>
